--- a/app/路由表.xlsx
+++ b/app/路由表.xlsx
@@ -16,9 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
-  <si>
-    <t>路由链接</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>路由链接
+(RouteMap)</t>
   </si>
   <si>
     <t xml:space="preserve"> 类名</t>
@@ -36,7 +37,7 @@
     <t>说明</t>
   </si>
   <si>
-    <t>RouteMap.Home</t>
+    <t>.Home</t>
   </si>
   <si>
     <t>shy.car.sdk.MainActivity</t>
@@ -51,7 +52,7 @@
     <t>程序首页</t>
   </si>
   <si>
-    <t>RouteMap.Login</t>
+    <t>Login</t>
   </si>
   <si>
     <t>shy.car.sdk.travel.login.ui.LoginDialogFragment</t>
@@ -60,7 +61,7 @@
     <t>登录</t>
   </si>
   <si>
-    <t>RouteMap.Verify</t>
+    <t>Verify</t>
   </si>
   <si>
     <t>shy.car.sdk.travel.login.ui.VerifyDialogFragment</t>
@@ -69,7 +70,7 @@
     <t>短信验证码</t>
   </si>
   <si>
-    <t>RouteMap.OrderTake</t>
+    <t>OrderTake</t>
   </si>
   <si>
     <t>shy.car.sdk.travel.order.take.ui.OrderTakeFragment</t>
@@ -78,13 +79,22 @@
     <t>接单</t>
   </si>
   <si>
-    <t>RouteMap.OrderSend</t>
+    <t>OrderSend</t>
   </si>
   <si>
     <t>shy.car.sdk.travel.order.send.ui.OrderSendFragment</t>
   </si>
   <si>
     <t>发货</t>
+  </si>
+  <si>
+    <t>CarRent</t>
+  </si>
+  <si>
+    <t>shy.car.sdk.travel.rent.ui.CarRentFragment</t>
+  </si>
+  <si>
+    <t>租车</t>
   </si>
 </sst>
 </file>
@@ -715,9 +725,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1085,12 +1098,12 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
@@ -1098,245 +1111,257 @@
     <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" customHeight="1" spans="1:6">
+    <row r="1" ht="28.5" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:6">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:6">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:6">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:6">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
